--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_2_participant_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_2_participant_202310.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7A9E5-BFFE-4F1A-9E26-397132E84BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B84CFE-9F40-4293-BE97-1D5665E7FF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -429,10 +429,10 @@
     <t>TIKIRZE</t>
   </si>
   <si>
-    <t>ng_oncho_stop_2_participant_202310</t>
-  </si>
-  <si>
-    <t>(2023 Oct) - 2. Participant Form</t>
+    <t>ng_oncho_oem_2_participant_202310</t>
+  </si>
+  <si>
+    <t>(2023 Oct) - 2. Participant Form (Lagos)</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -582,6 +582,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,7 +868,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M5"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1255,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD100"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1375,1251 +1380,1803 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="18"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="18"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="18"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="18"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="18"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="18"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="18"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="18"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="18"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="18"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="18"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="18"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="18"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="18"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="18"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="18"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="18"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="18"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="18"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="18"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="18"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="18"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="18"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="18"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="18"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="18"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="18"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="18"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="18"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="16"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="18"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="18"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B101" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B103" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C103" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B104" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C104" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
         <v>81</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B105" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C105" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B106" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C106" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B107" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C107" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D107" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B108" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C108" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B109" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C109" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
         <v>81</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B110" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C110" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B111" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C111" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B112" t="s">
         <v>93</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C112" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B113" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C113" t="s">
         <v>94</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D113" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
         <v>81</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B114" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C114" t="s">
         <v>95</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B115" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C115" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B116" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C116" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
         <v>81</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B117" t="s">
         <v>98</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C117" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D117" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B118" t="s">
         <v>99</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C118" t="s">
         <v>99</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D118" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>82</v>
+      </c>
+      <c r="B120" t="s">
         <v>100</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C120" t="s">
         <v>100</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E120" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" t="s">
         <v>101</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C121" t="s">
         <v>101</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E121" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>82</v>
+      </c>
+      <c r="B122" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C122" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E122" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" t="s">
         <v>103</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C123" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E123" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" t="s">
         <v>104</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C124" t="s">
         <v>104</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E124" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" t="s">
         <v>105</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C125" t="s">
         <v>105</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E125" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" t="s">
         <v>106</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C126" t="s">
         <v>106</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E126" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" t="s">
         <v>107</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C127" t="s">
         <v>107</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E127" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" t="s">
         <v>108</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C128" t="s">
         <v>108</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E128" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>82</v>
+      </c>
+      <c r="B129" t="s">
         <v>89</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C129" t="s">
         <v>89</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E129" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" t="s">
         <v>109</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C130" t="s">
         <v>109</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E130" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" t="s">
         <v>110</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C131" t="s">
         <v>110</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E131" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" t="s">
         <v>111</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C132" t="s">
         <v>111</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E132" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>82</v>
+      </c>
+      <c r="B133" t="s">
         <v>112</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C133" t="s">
         <v>112</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E133" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" t="s">
         <v>113</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C134" t="s">
         <v>113</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E134" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>82</v>
+      </c>
+      <c r="B135" t="s">
         <v>114</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C135" t="s">
         <v>114</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E135" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>82</v>
+      </c>
+      <c r="B136" t="s">
         <v>115</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C136" t="s">
         <v>115</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E136" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137" t="s">
         <v>116</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C137" t="s">
         <v>116</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E137" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>82</v>
+      </c>
+      <c r="B138" t="s">
         <v>117</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C138" t="s">
         <v>117</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E138" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139" t="s">
         <v>118</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C139" t="s">
         <v>118</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E139" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>82</v>
+      </c>
+      <c r="B140" t="s">
         <v>119</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C140" t="s">
         <v>119</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E140" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>82</v>
+      </c>
+      <c r="B141" t="s">
         <v>120</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C141" t="s">
         <v>120</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E141" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>82</v>
+      </c>
+      <c r="B142" t="s">
         <v>121</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C142" t="s">
         <v>121</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E142" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>82</v>
+      </c>
+      <c r="B143" t="s">
         <v>122</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C143" t="s">
         <v>122</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E143" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>82</v>
+      </c>
+      <c r="B144" t="s">
         <v>123</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C144" t="s">
         <v>123</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E144" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>82</v>
+      </c>
+      <c r="B145" t="s">
         <v>124</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C145" t="s">
         <v>124</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E145" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146" t="s">
         <v>125</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C146" t="s">
         <v>125</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E146" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147" t="s">
         <v>126</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C147" t="s">
         <v>126</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E147" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>82</v>
+      </c>
+      <c r="B148" t="s">
         <v>127</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C148" t="s">
         <v>127</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E148" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>82</v>
+      </c>
+      <c r="B149" t="s">
         <v>128</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C149" t="s">
         <v>128</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E149" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>82</v>
+      </c>
+      <c r="B150" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C150" t="s">
         <v>129</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E150" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>82</v>
+      </c>
+      <c r="B151" t="s">
         <v>130</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C151" t="s">
         <v>130</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E151" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>82</v>
+      </c>
+      <c r="B152" t="s">
         <v>131</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C152" t="s">
         <v>131</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E152" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>82</v>
+      </c>
+      <c r="B153" t="s">
         <v>132</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C153" t="s">
         <v>132</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E153" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>82</v>
+      </c>
+      <c r="B154" t="s">
         <v>133</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C154" t="s">
         <v>133</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E154" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155" t="s">
         <v>134</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C155" t="s">
         <v>134</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E155" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65">
+    <row r="157" spans="1:6">
+      <c r="A157" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B157">
         <v>201</v>
       </c>
-      <c r="C65">
+      <c r="C157">
         <v>201</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F157" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66">
+    <row r="158" spans="1:6">
+      <c r="A158" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158">
         <v>202</v>
       </c>
-      <c r="C66">
+      <c r="C158">
         <v>202</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F158" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67">
+    <row r="159" spans="1:6">
+      <c r="A159" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B159">
         <v>203</v>
       </c>
-      <c r="C67">
+      <c r="C159">
         <v>203</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F159" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68">
+    <row r="160" spans="1:6">
+      <c r="A160" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160">
         <v>204</v>
       </c>
-      <c r="C68">
+      <c r="C160">
         <v>204</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F160" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69">
+    <row r="161" spans="1:6">
+      <c r="A161" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161">
         <v>205</v>
       </c>
-      <c r="C69">
+      <c r="C161">
         <v>205</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F161" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70">
+    <row r="162" spans="1:6">
+      <c r="A162" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162">
         <v>206</v>
       </c>
-      <c r="C70">
+      <c r="C162">
         <v>206</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F162" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B71">
+    <row r="163" spans="1:6">
+      <c r="A163" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163">
         <v>207</v>
       </c>
-      <c r="C71">
+      <c r="C163">
         <v>207</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F163" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72">
+    <row r="164" spans="1:6">
+      <c r="A164" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B164">
         <v>208</v>
       </c>
-      <c r="C72">
+      <c r="C164">
         <v>208</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F164" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73">
+    <row r="165" spans="1:6">
+      <c r="A165" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165">
         <v>209</v>
       </c>
-      <c r="C73">
+      <c r="C165">
         <v>209</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F165" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74">
+    <row r="166" spans="1:6">
+      <c r="A166" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B166">
         <v>210</v>
       </c>
-      <c r="C74">
+      <c r="C166">
         <v>210</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F166" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75">
+    <row r="167" spans="1:6">
+      <c r="A167" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B167">
         <v>211</v>
       </c>
-      <c r="C75">
+      <c r="C167">
         <v>211</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F167" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76">
+    <row r="168" spans="1:6">
+      <c r="A168" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B168">
         <v>212</v>
       </c>
-      <c r="C76">
+      <c r="C168">
         <v>212</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F168" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77">
+    <row r="169" spans="1:6">
+      <c r="A169" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B169">
         <v>213</v>
       </c>
-      <c r="C77">
+      <c r="C169">
         <v>213</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F169" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
+    <row r="170" spans="1:6">
+      <c r="A170" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B170">
         <v>214</v>
       </c>
-      <c r="C78">
+      <c r="C170">
         <v>214</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F170" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79">
+    <row r="171" spans="1:6">
+      <c r="A171" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B171">
         <v>215</v>
       </c>
-      <c r="C79">
+      <c r="C171">
         <v>215</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F171" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80">
+    <row r="172" spans="1:6">
+      <c r="A172" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172">
         <v>216</v>
       </c>
-      <c r="C80">
+      <c r="C172">
         <v>216</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F172" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81">
+    <row r="173" spans="1:6">
+      <c r="A173" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173">
         <v>217</v>
       </c>
-      <c r="C81">
+      <c r="C173">
         <v>217</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F173" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82">
+    <row r="174" spans="1:6">
+      <c r="A174" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B174">
         <v>218</v>
       </c>
-      <c r="C82">
+      <c r="C174">
         <v>218</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F174" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
+    <row r="175" spans="1:6">
+      <c r="A175" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B175">
         <v>219</v>
       </c>
-      <c r="C83">
+      <c r="C175">
         <v>219</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F175" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
+    <row r="176" spans="1:6">
+      <c r="A176" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B176">
         <v>220</v>
       </c>
-      <c r="C84">
+      <c r="C176">
         <v>220</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F176" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85">
+    <row r="177" spans="1:6">
+      <c r="A177" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B177">
         <v>221</v>
       </c>
-      <c r="C85">
+      <c r="C177">
         <v>221</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F177" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86">
+    <row r="178" spans="1:6">
+      <c r="A178" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178">
         <v>222</v>
       </c>
-      <c r="C86">
+      <c r="C178">
         <v>222</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F178" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87">
+    <row r="179" spans="1:6">
+      <c r="A179" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B179">
         <v>223</v>
       </c>
-      <c r="C87">
+      <c r="C179">
         <v>223</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F179" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88">
+    <row r="180" spans="1:6">
+      <c r="A180" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B180">
         <v>224</v>
       </c>
-      <c r="C88">
+      <c r="C180">
         <v>224</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F180" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89">
+    <row r="181" spans="1:6">
+      <c r="A181" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B181">
         <v>225</v>
       </c>
-      <c r="C89">
+      <c r="C181">
         <v>225</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F181" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90">
+    <row r="182" spans="1:6">
+      <c r="A182" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B182">
         <v>226</v>
       </c>
-      <c r="C90">
+      <c r="C182">
         <v>226</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F182" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91">
+    <row r="183" spans="1:6">
+      <c r="A183" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B183">
         <v>227</v>
       </c>
-      <c r="C91">
+      <c r="C183">
         <v>227</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F183" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92">
+    <row r="184" spans="1:6">
+      <c r="A184" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B184">
         <v>228</v>
       </c>
-      <c r="C92">
+      <c r="C184">
         <v>228</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F184" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93">
+    <row r="185" spans="1:6">
+      <c r="A185" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B185">
         <v>229</v>
       </c>
-      <c r="C93">
+      <c r="C185">
         <v>229</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F185" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94">
+    <row r="186" spans="1:6">
+      <c r="A186" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B186">
         <v>230</v>
       </c>
-      <c r="C94">
+      <c r="C186">
         <v>230</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F186" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95">
+    <row r="187" spans="1:6">
+      <c r="A187" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B187">
         <v>231</v>
       </c>
-      <c r="C95">
+      <c r="C187">
         <v>231</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F187" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96">
+    <row r="188" spans="1:6">
+      <c r="A188" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B188">
         <v>232</v>
       </c>
-      <c r="C96">
+      <c r="C188">
         <v>232</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F188" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97">
+    <row r="189" spans="1:6">
+      <c r="A189" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B189">
         <v>233</v>
       </c>
-      <c r="C97">
+      <c r="C189">
         <v>233</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F189" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B98">
+    <row r="190" spans="1:6">
+      <c r="A190" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B190">
         <v>234</v>
       </c>
-      <c r="C98">
+      <c r="C190">
         <v>234</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F190" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99">
+    <row r="191" spans="1:6">
+      <c r="A191" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B191">
         <v>235</v>
       </c>
-      <c r="C99">
+      <c r="C191">
         <v>235</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F191" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100">
+    <row r="192" spans="1:6">
+      <c r="A192" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B192">
         <v>236</v>
       </c>
-      <c r="C100">
+      <c r="C192">
         <v>236</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F192" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E46">
-    <sortCondition ref="B10:B46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:E138">
+    <sortCondition ref="B102:B138"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_2_participant_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_2_participant_202310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B84CFE-9F40-4293-BE97-1D5665E7FF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3002B3FF-1C37-417A-97EC-AEC695E8B99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -177,12 +177,6 @@
     <t>Enter the age in years</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 9</t>
-  </si>
-  <si>
-    <t>Age must be between 5 and 9 years old</t>
-  </si>
-  <si>
     <t>p_sample_collected</t>
   </si>
   <si>
@@ -433,6 +427,12 @@
   </si>
   <si>
     <t>(2023 Oct) - 2. Participant Form (Lagos)</t>
+  </si>
+  <si>
+    <t>. &gt;= 20</t>
+  </si>
+  <si>
+    <t>Age must be 20 years or more</t>
   </si>
 </sst>
 </file>
@@ -864,11 +864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -964,7 +964,7 @@
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1">
       <c r="A3" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>22</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="4" spans="1:14" s="13" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>24</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="5" spans="1:14" s="13" customFormat="1">
       <c r="A5" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>26</v>
@@ -1169,10 +1169,10 @@
       </c>
       <c r="D12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>38</v>
@@ -1186,10 +1186,10 @@
         <v>31</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>38</v>
@@ -1200,46 +1200,46 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J17" s="14"/>
     </row>
@@ -1277,7 +1277,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1286,89 +1286,89 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="9"/>
@@ -1933,746 +1933,746 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C110" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C111" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D113" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C114" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D114" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C115" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B116" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D117" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D118" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E120" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E121" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E122" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E123" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" t="s">
+        <v>102</v>
+      </c>
+      <c r="E124" t="s">
         <v>82</v>
-      </c>
-      <c r="B124" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" t="s">
-        <v>104</v>
-      </c>
-      <c r="E124" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" t="s">
         <v>82</v>
-      </c>
-      <c r="B125" t="s">
-        <v>105</v>
-      </c>
-      <c r="C125" t="s">
-        <v>105</v>
-      </c>
-      <c r="E125" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C126" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E126" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C127" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E127" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C128" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E128" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B129" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E129" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C130" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E130" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B131" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E131" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C132" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E132" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C133" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E133" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B134" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C134" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E134" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B135" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C135" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E135" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B136" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C136" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E136" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E137" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B138" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E138" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B139" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C139" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B140" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C140" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E140" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B141" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C141" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E141" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B142" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C142" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E142" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B143" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C143" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E143" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C144" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E144" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B145" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C145" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E145" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C146" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E146" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B147" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E147" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B148" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C148" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E148" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C149" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E149" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C150" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E150" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B151" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C151" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E151" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E152" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B153" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C153" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E153" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B154" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C154" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E154" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B155" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C155" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E155" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B157">
         <v>201</v>
@@ -2681,12 +2681,12 @@
         <v>201</v>
       </c>
       <c r="F157" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B158">
         <v>202</v>
@@ -2695,12 +2695,12 @@
         <v>202</v>
       </c>
       <c r="F158" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B159">
         <v>203</v>
@@ -2709,12 +2709,12 @@
         <v>203</v>
       </c>
       <c r="F159" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B160">
         <v>204</v>
@@ -2723,12 +2723,12 @@
         <v>204</v>
       </c>
       <c r="F160" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B161">
         <v>205</v>
@@ -2737,12 +2737,12 @@
         <v>205</v>
       </c>
       <c r="F161" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B162">
         <v>206</v>
@@ -2751,12 +2751,12 @@
         <v>206</v>
       </c>
       <c r="F162" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B163">
         <v>207</v>
@@ -2765,12 +2765,12 @@
         <v>207</v>
       </c>
       <c r="F163" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B164">
         <v>208</v>
@@ -2779,12 +2779,12 @@
         <v>208</v>
       </c>
       <c r="F164" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B165">
         <v>209</v>
@@ -2793,12 +2793,12 @@
         <v>209</v>
       </c>
       <c r="F165" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B166">
         <v>210</v>
@@ -2807,12 +2807,12 @@
         <v>210</v>
       </c>
       <c r="F166" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B167">
         <v>211</v>
@@ -2821,12 +2821,12 @@
         <v>211</v>
       </c>
       <c r="F167" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B168">
         <v>212</v>
@@ -2835,12 +2835,12 @@
         <v>212</v>
       </c>
       <c r="F168" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B169">
         <v>213</v>
@@ -2849,12 +2849,12 @@
         <v>213</v>
       </c>
       <c r="F169" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B170">
         <v>214</v>
@@ -2863,12 +2863,12 @@
         <v>214</v>
       </c>
       <c r="F170" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B171">
         <v>215</v>
@@ -2877,12 +2877,12 @@
         <v>215</v>
       </c>
       <c r="F171" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B172">
         <v>216</v>
@@ -2891,12 +2891,12 @@
         <v>216</v>
       </c>
       <c r="F172" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B173">
         <v>217</v>
@@ -2905,12 +2905,12 @@
         <v>217</v>
       </c>
       <c r="F173" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B174">
         <v>218</v>
@@ -2919,12 +2919,12 @@
         <v>218</v>
       </c>
       <c r="F174" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B175">
         <v>219</v>
@@ -2933,12 +2933,12 @@
         <v>219</v>
       </c>
       <c r="F175" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B176">
         <v>220</v>
@@ -2947,12 +2947,12 @@
         <v>220</v>
       </c>
       <c r="F176" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B177">
         <v>221</v>
@@ -2961,12 +2961,12 @@
         <v>221</v>
       </c>
       <c r="F177" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B178">
         <v>222</v>
@@ -2975,12 +2975,12 @@
         <v>222</v>
       </c>
       <c r="F178" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B179">
         <v>223</v>
@@ -2989,12 +2989,12 @@
         <v>223</v>
       </c>
       <c r="F179" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B180">
         <v>224</v>
@@ -3003,12 +3003,12 @@
         <v>224</v>
       </c>
       <c r="F180" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B181">
         <v>225</v>
@@ -3017,12 +3017,12 @@
         <v>225</v>
       </c>
       <c r="F181" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B182">
         <v>226</v>
@@ -3031,12 +3031,12 @@
         <v>226</v>
       </c>
       <c r="F182" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B183">
         <v>227</v>
@@ -3045,12 +3045,12 @@
         <v>227</v>
       </c>
       <c r="F183" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B184">
         <v>228</v>
@@ -3059,12 +3059,12 @@
         <v>228</v>
       </c>
       <c r="F184" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B185">
         <v>229</v>
@@ -3073,12 +3073,12 @@
         <v>229</v>
       </c>
       <c r="F185" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B186">
         <v>230</v>
@@ -3087,12 +3087,12 @@
         <v>230</v>
       </c>
       <c r="F186" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B187">
         <v>231</v>
@@ -3101,12 +3101,12 @@
         <v>231</v>
       </c>
       <c r="F187" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B188">
         <v>232</v>
@@ -3115,12 +3115,12 @@
         <v>232</v>
       </c>
       <c r="F188" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B189">
         <v>233</v>
@@ -3129,12 +3129,12 @@
         <v>233</v>
       </c>
       <c r="F189" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B190">
         <v>234</v>
@@ -3143,12 +3143,12 @@
         <v>234</v>
       </c>
       <c r="F190" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B191">
         <v>235</v>
@@ -3157,12 +3157,12 @@
         <v>235</v>
       </c>
       <c r="F191" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B192">
         <v>236</v>
@@ -3171,7 +3171,7 @@
         <v>236</v>
       </c>
       <c r="F192" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3186,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3198,24 +3198,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_2_participant_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_2_participant_202310.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B84CFE-9F40-4293-BE97-1D5665E7FF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EFF1D9-78E7-47C0-967E-D13566FE8E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,10 +429,10 @@
     <t>TIKIRZE</t>
   </si>
   <si>
-    <t>ng_oncho_oem_2_participant_202310</t>
-  </si>
-  <si>
-    <t>(2023 Oct) - 2. Participant Form (Lagos)</t>
+    <t>(2023 Oct) -  Lago - 2. Participant Form</t>
+  </si>
+  <si>
+    <t>ng_oncho_oem_2_participant_202310_lagos</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -582,11 +582,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1383,555 +1382,463 @@
       <c r="A9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="16"/>
       <c r="C32" s="17"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="16"/>
       <c r="C33" s="17"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="16"/>
       <c r="C35" s="17"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="16"/>
       <c r="C37" s="17"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="16"/>
       <c r="C38" s="17"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="16"/>
       <c r="C42" s="17"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="16"/>
       <c r="C43" s="17"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="16"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="16"/>
       <c r="C47" s="17"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="16"/>
       <c r="C49" s="17"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="18"/>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="16"/>
       <c r="C51" s="17"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="18"/>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="16"/>
       <c r="C52" s="17"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="18"/>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="16"/>
       <c r="C53" s="17"/>
       <c r="D53" s="16"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="16"/>
       <c r="C54" s="17"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="16"/>
       <c r="C55" s="17"/>
       <c r="D55" s="16"/>
-      <c r="E55" s="18"/>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="16"/>
       <c r="C56" s="17"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="18"/>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="16"/>
       <c r="C57" s="17"/>
       <c r="D57" s="16"/>
-      <c r="E57" s="18"/>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="16"/>
       <c r="C58" s="17"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="16"/>
       <c r="C59" s="17"/>
       <c r="D59" s="16"/>
-      <c r="E59" s="18"/>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="18"/>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="16"/>
       <c r="C61" s="17"/>
       <c r="D61" s="16"/>
-      <c r="E61" s="18"/>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="16"/>
-      <c r="E62" s="18"/>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="16"/>
       <c r="C63" s="17"/>
       <c r="D63" s="16"/>
-      <c r="E63" s="18"/>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="16"/>
       <c r="C64" s="17"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="18"/>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="16"/>
       <c r="C65" s="17"/>
       <c r="D65" s="16"/>
-      <c r="E65" s="18"/>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="16"/>
       <c r="C66" s="17"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="18"/>
-    </row>
-    <row r="67" spans="1:5">
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="16"/>
       <c r="C67" s="17"/>
       <c r="D67" s="16"/>
-      <c r="E67" s="18"/>
-    </row>
-    <row r="68" spans="1:5">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="16"/>
       <c r="C68" s="17"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="18"/>
-    </row>
-    <row r="69" spans="1:5">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="16"/>
       <c r="C69" s="17"/>
       <c r="D69" s="16"/>
-      <c r="E69" s="18"/>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="16"/>
       <c r="C70" s="17"/>
       <c r="D70" s="16"/>
-      <c r="E70" s="18"/>
-    </row>
-    <row r="71" spans="1:5">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="16"/>
       <c r="C71" s="17"/>
       <c r="D71" s="16"/>
-      <c r="E71" s="18"/>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="16"/>
       <c r="C72" s="17"/>
       <c r="D72" s="16"/>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="1:5">
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="16"/>
       <c r="C73" s="17"/>
       <c r="D73" s="16"/>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" spans="1:5">
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="16"/>
       <c r="C74" s="17"/>
       <c r="D74" s="16"/>
-      <c r="E74" s="18"/>
-    </row>
-    <row r="75" spans="1:5">
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="16"/>
       <c r="C75" s="17"/>
       <c r="D75" s="16"/>
-      <c r="E75" s="18"/>
-    </row>
-    <row r="76" spans="1:5">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="16"/>
       <c r="C76" s="17"/>
       <c r="D76" s="16"/>
-      <c r="E76" s="18"/>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="16"/>
       <c r="C77" s="17"/>
       <c r="D77" s="16"/>
-      <c r="E77" s="18"/>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="16"/>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
-      <c r="E78" s="18"/>
-    </row>
-    <row r="79" spans="1:5">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="16"/>
       <c r="C79" s="17"/>
       <c r="D79" s="16"/>
-      <c r="E79" s="18"/>
-    </row>
-    <row r="80" spans="1:5">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="16"/>
       <c r="C80" s="17"/>
       <c r="D80" s="16"/>
-      <c r="E80" s="18"/>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="16"/>
       <c r="C81" s="17"/>
       <c r="D81" s="16"/>
-      <c r="E81" s="18"/>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="16"/>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
-      <c r="E82" s="18"/>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="16"/>
       <c r="C83" s="17"/>
       <c r="D83" s="16"/>
-      <c r="E83" s="18"/>
-    </row>
-    <row r="84" spans="1:5">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="16"/>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="18"/>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="16"/>
       <c r="C85" s="17"/>
       <c r="D85" s="16"/>
-      <c r="E85" s="18"/>
-    </row>
-    <row r="86" spans="1:5">
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="16"/>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
-      <c r="E86" s="18"/>
-    </row>
-    <row r="87" spans="1:5">
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="16"/>
       <c r="C87" s="17"/>
       <c r="D87" s="16"/>
-      <c r="E87" s="18"/>
-    </row>
-    <row r="88" spans="1:5">
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="16"/>
       <c r="C88" s="17"/>
       <c r="D88" s="16"/>
-      <c r="E88" s="18"/>
-    </row>
-    <row r="89" spans="1:5">
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="16"/>
       <c r="C89" s="17"/>
       <c r="D89" s="16"/>
-      <c r="E89" s="18"/>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="16"/>
       <c r="C90" s="17"/>
       <c r="D90" s="16"/>
-      <c r="E90" s="18"/>
-    </row>
-    <row r="91" spans="1:5">
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="16"/>
       <c r="C91" s="17"/>
       <c r="D91" s="16"/>
-      <c r="E91" s="18"/>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="16"/>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
-      <c r="E92" s="18"/>
-    </row>
-    <row r="93" spans="1:5">
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="16"/>
       <c r="C93" s="17"/>
       <c r="D93" s="16"/>
-      <c r="E93" s="18"/>
-    </row>
-    <row r="94" spans="1:5">
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="16"/>
       <c r="C94" s="17"/>
       <c r="D94" s="16"/>
-      <c r="E94" s="18"/>
-    </row>
-    <row r="95" spans="1:5">
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="16"/>
       <c r="C95" s="17"/>
       <c r="D95" s="16"/>
-      <c r="E95" s="18"/>
-    </row>
-    <row r="96" spans="1:5">
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="16"/>
       <c r="C96" s="17"/>
       <c r="D96" s="16"/>
-      <c r="E96" s="18"/>
-    </row>
-    <row r="97" spans="1:5">
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="16"/>
       <c r="C97" s="17"/>
       <c r="D97" s="16"/>
-      <c r="E97" s="18"/>
-    </row>
-    <row r="98" spans="1:5">
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="16"/>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
-      <c r="E98" s="18"/>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="16"/>
       <c r="C99" s="17"/>
       <c r="D99" s="16"/>
-      <c r="E99" s="18"/>
-    </row>
-    <row r="100" spans="1:5">
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="16"/>
       <c r="C100" s="17"/>
       <c r="D100" s="16"/>
-      <c r="E100" s="18"/>
-    </row>
-    <row r="101" spans="1:5">
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -1942,7 +1849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>81</v>
       </c>
@@ -1956,7 +1863,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -1970,7 +1877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -1984,7 +1891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -1998,7 +1905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>81</v>
       </c>
@@ -2012,7 +1919,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -2026,7 +1933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>81</v>
       </c>
@@ -2040,7 +1947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -2054,7 +1961,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -2068,7 +1975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -3187,7 +3094,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3209,10 +3116,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
